--- a/results/serlected_fetures.xlsx
+++ b/results/serlected_fetures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25c58ca90adadc11/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\honours-project-v2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC104860699E7DDA5ADE58EF" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{703DF15F-C1C1-4AC2-B7D0-2B29D80CEE72}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481C1529-8FC8-425F-B2EC-1037BC7D692E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="4305" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="253">
   <si>
     <t>jitterDDP_sma_stddev</t>
   </si>
@@ -459,6 +459,335 @@
   </si>
   <si>
     <t>pcm_fftMag_mfcc_sma_de[14]_stddev</t>
+  </si>
+  <si>
+    <t>RF_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_V_203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F0final_sma_stddev</t>
+  </si>
+  <si>
+    <t>voicingFinalUnclipped_sma_stddev</t>
+  </si>
+  <si>
+    <t>voicingFinalUnclipped_sma_amean</t>
+  </si>
+  <si>
+    <t>jitterLocal_sma_amean</t>
+  </si>
+  <si>
+    <t>shimmerLocal_sma_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma[0]_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma[0]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma[4]_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma[6]_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma[18]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma[25]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralRollOff25.0_sma_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralRollOff90.0_sma_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralEntropy_sma_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralSkewness_sma_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralKurtosis_sma_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralKurtosis_sma_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralHarmonicity_sma_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[2]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[3]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[4]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[4]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[5]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[6]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[7]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[7]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[8]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[8]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[9]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[9]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[10]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[11]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[11]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[12]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[13]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[13]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma[14]_amean</t>
+  </si>
+  <si>
+    <t>F0final_sma_de_amean</t>
+  </si>
+  <si>
+    <t>voicingFinalUnclipped_sma_de_amean</t>
+  </si>
+  <si>
+    <t>jitterLocal_sma_de_amean</t>
+  </si>
+  <si>
+    <t>jitterDDP_sma_de_amean</t>
+  </si>
+  <si>
+    <t>shimmerLocal_sma_de_stddev</t>
+  </si>
+  <si>
+    <t>shimmerLocal_sma_de_amean</t>
+  </si>
+  <si>
+    <t>logHNR_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_zcr_sma_de_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[0]_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[0]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[1]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[2]_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[2]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[3]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[4]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[5]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[6]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[7]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[8]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[9]_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[9]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[10]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[11]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[12]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[13]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[14]_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[15]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[16]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[17]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[18]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[19]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[20]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[21]_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[21]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[22]_amean</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[23]_stddev</t>
+  </si>
+  <si>
+    <t>audSpec_Rfilt_sma_de[25]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_fband250-650_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_fband1000-4000_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralRollOff50.0_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralRollOff90.0_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralFlux_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralEntropy_sma_de_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralEntropy_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralSkewness_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralKurtosis_sma_de_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralKurtosis_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralSlope_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_spectralHarmonicity_sma_de_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[1]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[2]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[2]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[3]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[3]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[4]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[5]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[5]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[6]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[7]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[8]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[8]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[9]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[9]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[10]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[11]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[11]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[12]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[13]_stddev</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[13]_amean</t>
+  </si>
+  <si>
+    <t>pcm_fftMag_mfcc_sma_de[14]_amean</t>
   </si>
 </sst>
 </file>
@@ -792,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B116"/>
+      <selection activeCell="D2" sqref="D2:D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -804,809 +1133,1600 @@
     <col min="2" max="2" width="48.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="D40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="D58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="D60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="D65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="D66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="D67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="D69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="D70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="D72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="D74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="D75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="B76" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="D76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="B77" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="D77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="B78" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="D78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="B79" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="D79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="B80" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="D80" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
       <c r="B81" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="D81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
       <c r="B82" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
+      <c r="D82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
       <c r="B83" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="D83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
       <c r="B84" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
       <c r="B85" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="D85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
       <c r="B86" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="87" spans="2:2">
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
       <c r="B87" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="88" spans="2:2">
+      <c r="D87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
       <c r="B88" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="89" spans="2:2">
+      <c r="D88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
       <c r="B89" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="90" spans="2:2">
+      <c r="D89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
       <c r="B90" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
+      <c r="D90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
       <c r="B91" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="92" spans="2:2">
+      <c r="D91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
       <c r="B92" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="93" spans="2:2">
+      <c r="D92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
       <c r="B93" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="94" spans="2:2">
+      <c r="D93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
       <c r="B94" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="95" spans="2:2">
+      <c r="D94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
       <c r="B95" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="96" spans="2:2">
+      <c r="D95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
       <c r="B96" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="D96" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
       <c r="B97" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="98" spans="2:2">
+      <c r="D97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
       <c r="B98" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
+      <c r="D98" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
       <c r="B99" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="D99" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="101" spans="2:2">
+      <c r="D100" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
       <c r="B101" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="102" spans="2:2">
+      <c r="D101" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
       <c r="B102" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="103" spans="2:2">
+      <c r="D102" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
       <c r="B103" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="104" spans="2:2">
+      <c r="D103" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
       <c r="B104" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="105" spans="2:2">
+      <c r="D104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
       <c r="B105" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="106" spans="2:2">
+      <c r="D105" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
       <c r="B106" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="107" spans="2:2">
+      <c r="D106" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
       <c r="B107" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="108" spans="2:2">
+      <c r="D107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
       <c r="B108" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="109" spans="2:2">
+      <c r="D108" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
       <c r="B109" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="110" spans="2:2">
+      <c r="D109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
       <c r="B110" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="111" spans="2:2">
+      <c r="D110" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
       <c r="B111" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="112" spans="2:2">
+      <c r="D111" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
       <c r="B112" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="113" spans="2:2">
+      <c r="D112" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
       <c r="B113" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="114" spans="2:2">
+      <c r="D113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
       <c r="B114" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="115" spans="2:2">
+      <c r="D114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
       <c r="B115" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="116" spans="2:2">
+      <c r="D115" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
       <c r="B116" s="1" t="s">
         <v>143</v>
+      </c>
+      <c r="D116" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="D117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="D118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="D119" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="D120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="D121" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="D122" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="D123" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="D124" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="D125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="D126" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="D127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="D128" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4">
+      <c r="D187" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4">
+      <c r="D188" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4">
+      <c r="D190" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4">
+      <c r="D200" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
